--- a/biology/Médecine/Laurent_Joubert/Laurent_Joubert.xlsx
+++ b/biology/Médecine/Laurent_Joubert/Laurent_Joubert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laurent Joubert, né à Valence le 16 décembre 1529, et mort à Lombers (Tarn) le 21 octobre 1583[1], est un médecin et chirurgien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurent Joubert, né à Valence le 16 décembre 1529, et mort à Lombers (Tarn) le 21 octobre 1583, est un médecin et chirurgien français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Natif de Valence, Joubert fait ses études de médecine à Montpellier, Paris, Turin, Padoue et Ferrare. Il reçoit son diplôme à Montpellier.
-Il exerce à Aubenas et Montbrison. À la mort de Guillaume Rondelet, 1566, il lui succède comme professeur ; André Dulaurens lui succède à Montpellier. À partir de 1579, il est premier médecin du roi Henri III de Navarre (Henri IV de France)[2],[3].
+Il exerce à Aubenas et Montbrison. À la mort de Guillaume Rondelet, 1566, il lui succède comme professeur ; André Dulaurens lui succède à Montpellier. À partir de 1579, il est premier médecin du roi Henri III de Navarre (Henri IV de France),.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'orthographe ancienne du français a été conservée.
 Traité du ris contenant son essance, ses causes et mervelheus effais. La Cause morale du ris de Démocrite, expliquée et témognée par Hippocras [par J. Guichard]. Plus un Dialogue sur la cacographie fransaise [sic] [par Zangmaister] avec des Annotacions sur l'orthographie de M. Joubert [par Christophle de Beau-Chatel] (1579)
 Traduction de Guillaume Rondelet: L’Histoire entiere des poissons, composee premierement en Latin par Maistre Guillaume Rondelet …, maintenant traduites (sic) en François. Avec leurs pourtraits au naïf, Lyon, 1558, 2 t. en 1 vol. in-fol., fig.
-Traicté des arcbusades, contenant la vraye essence du mal, et sa propre curation, par certaines et methodiques indications : avec l’explication de divers Problemes touchant ceste matiere., Paris, P. l(Huillier, 1570, 155 p. (disponible sur Internet Archive). Un exemplaire a été acquis, en 2022, par la médiathèque centrale Émile Zola de Montpellier[4].
+Traicté des arcbusades, contenant la vraye essence du mal, et sa propre curation, par certaines et methodiques indications : avec l’explication de divers Problemes touchant ceste matiere., Paris, P. l(Huillier, 1570, 155 p. (disponible sur Internet Archive). Un exemplaire a été acquis, en 2022, par la médiathèque centrale Émile Zola de Montpellier.
 (avec Isaac Joubert) Erreurs populaires (1578).
 Première partie : (it) La prima parte de gli errori popolari […], nella quale si contiene l'excellenza della medicina &amp; de' medici, della concettione &amp; generatione, della gravidezza, del parto, e delle donne di parto, &amp; del latte, e del nutrire i bambini, trad. Alberto Luchi da Colle, Florence, Filippo Giunti, 1592
 Publication et édition de La grande chirurgie de Guy de Chauliac en latin puis français (1579, 1584).
